--- a/Data/aearep-2/candidatepackages.xlsx
+++ b/Data/aearep-2/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="117">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -25,21 +25,21 @@
     <t>reghdfe</t>
   </si>
   <si>
+    <t>coefplot</t>
+  </si>
+  <si>
     <t>unique</t>
   </si>
   <si>
-    <t>coefplot</t>
-  </si>
-  <si>
     <t>diff</t>
   </si>
   <si>
+    <t>binscatter</t>
+  </si>
+  <si>
     <t>center</t>
   </si>
   <si>
-    <t>binscatter</t>
-  </si>
-  <si>
     <t>fs</t>
   </si>
   <si>
@@ -64,27 +64,30 @@
     <t>missing</t>
   </si>
   <si>
+    <t>surface</t>
+  </si>
+  <si>
     <t>seq</t>
   </si>
   <si>
-    <t>surface</t>
-  </si>
-  <si>
     <t>dups</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>poverty</t>
+  </si>
+  <si>
+    <t>norm</t>
+  </si>
+  <si>
+    <t>cluster</t>
+  </si>
+  <si>
     <t>pv</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>cluster</t>
-  </si>
-  <si>
-    <t>norm</t>
-  </si>
-  <si>
     <t>split</t>
   </si>
   <si>
@@ -97,90 +100,87 @@
     <t>white</t>
   </si>
   <si>
+    <t>sumstats</t>
+  </si>
+  <si>
+    <t>dummies</t>
+  </si>
+  <si>
+    <t>grep</t>
+  </si>
+  <si>
     <t>running</t>
   </si>
   <si>
-    <t>poverty</t>
-  </si>
-  <si>
-    <t>sumstats</t>
-  </si>
-  <si>
     <t>python</t>
   </si>
   <si>
+    <t>median</t>
+  </si>
+  <si>
     <t>index</t>
   </si>
   <si>
     <t>dag</t>
   </si>
   <si>
-    <t>dummies</t>
-  </si>
-  <si>
-    <t>grep</t>
+    <t>delta</t>
   </si>
   <si>
     <t>irr</t>
   </si>
   <si>
-    <t>median</t>
-  </si>
-  <si>
-    <t>delta</t>
-  </si>
-  <si>
     <t>integrate</t>
   </si>
   <si>
+    <t>bys</t>
+  </si>
+  <si>
+    <t>kernel</t>
+  </si>
+  <si>
+    <t>git</t>
+  </si>
+  <si>
     <t>combine</t>
   </si>
   <si>
+    <t>pre</t>
+  </si>
+  <si>
     <t>nearest</t>
   </si>
   <si>
-    <t>bys</t>
-  </si>
-  <si>
-    <t>kernel</t>
-  </si>
-  <si>
-    <t>git</t>
-  </si>
-  <si>
-    <t>pre</t>
-  </si>
-  <si>
     <t>effects</t>
   </si>
   <si>
+    <t>zip</t>
+  </si>
+  <si>
     <t>hbox</t>
   </si>
   <si>
-    <t>zip</t>
+    <t>unemp</t>
+  </si>
+  <si>
+    <t>gets</t>
   </si>
   <si>
     <t>tr</t>
   </si>
   <si>
-    <t>gets</t>
-  </si>
-  <si>
-    <t>unemp</t>
+    <t>usd</t>
   </si>
   <si>
     <t>sequence</t>
   </si>
   <si>
-    <t>usd</t>
+    <t>digits</t>
   </si>
   <si>
     <t>switch</t>
   </si>
   <si>
-    <t>digits</t>
-  </si>
-  <si>
     <t>Package popularity (rank out of total # of packages)</t>
   </si>
   <si>
@@ -211,9 +211,6 @@
     <t>00_install.do</t>
   </si>
   <si>
-    <t>config.do</t>
-  </si>
-  <si>
     <t>main.do</t>
   </si>
   <si>
@@ -233,9 +230,6 @@
   </si>
   <si>
     <t>bootstrap_table_data_prep.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
   </si>
   <si>
     <t>cons_disaggregated.do</t>
@@ -472,7 +466,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -484,7 +478,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -496,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -508,7 +502,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -520,7 +514,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -532,7 +526,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -544,7 +538,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -556,7 +550,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -568,7 +562,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -580,7 +574,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -592,7 +586,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -604,7 +598,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -616,10 +610,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>385</v>
+        <v>347</v>
       </c>
       <c r="C17">
-        <v>0.12765252590179443</v>
+        <v>0</v>
       </c>
       <c r="D17"/>
     </row>
@@ -628,10 +622,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C18">
-        <v>0.13925729691982269</v>
+        <v>0.13586777448654175</v>
       </c>
       <c r="D18"/>
     </row>
@@ -640,10 +634,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>537</v>
+        <v>493</v>
       </c>
       <c r="C19">
-        <v>0.17805039882659912</v>
+        <v>0.16297520697116852</v>
       </c>
       <c r="D19"/>
     </row>
@@ -652,10 +646,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>555</v>
+        <v>499</v>
       </c>
       <c r="C20">
-        <v>0.1840185672044754</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D20"/>
     </row>
@@ -664,10 +658,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>565</v>
+        <v>529</v>
       </c>
       <c r="C21">
-        <v>0.18733422458171844</v>
+        <v>0.17487603425979614</v>
       </c>
       <c r="D21"/>
     </row>
@@ -676,10 +670,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>566</v>
+        <v>539</v>
       </c>
       <c r="C22">
-        <v>0.18766577541828156</v>
+        <v>0.17818181216716766</v>
       </c>
       <c r="D22"/>
     </row>
@@ -688,10 +682,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>594</v>
+        <v>563</v>
       </c>
       <c r="C23">
-        <v>0.19694960117340088</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D23"/>
     </row>
@@ -700,10 +694,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="C24">
-        <v>0.20092837512493134</v>
+        <v>0.20297521352767944</v>
       </c>
       <c r="D24"/>
     </row>
@@ -712,10 +706,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>613</v>
+        <v>632</v>
       </c>
       <c r="C25">
-        <v>0.20324933528900146</v>
+        <v>0.20892561972141266</v>
       </c>
       <c r="D25"/>
     </row>
@@ -724,10 +718,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>694</v>
+        <v>647</v>
       </c>
       <c r="C26">
-        <v>0.23010610044002533</v>
+        <v>0.21388429403305054</v>
       </c>
       <c r="D26"/>
     </row>
@@ -736,10 +730,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>745</v>
+        <v>706</v>
       </c>
       <c r="C27">
-        <v>0.24701590836048126</v>
+        <v>0.23338842391967773</v>
       </c>
       <c r="D27"/>
     </row>
@@ -748,10 +742,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>797</v>
+        <v>712</v>
       </c>
       <c r="C28">
-        <v>0.2642572820186615</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D28"/>
     </row>
@@ -760,10 +754,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C29">
-        <v>0.26889920234680176</v>
+        <v>0.26842975616455078</v>
       </c>
       <c r="D29"/>
     </row>
@@ -772,10 +766,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>827</v>
+        <v>875</v>
       </c>
       <c r="C30">
-        <v>0.27420425415039062</v>
+        <v>0.28925618529319763</v>
       </c>
       <c r="D30"/>
     </row>
@@ -784,10 +778,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>910</v>
+        <v>880</v>
       </c>
       <c r="C31">
-        <v>0.3017241358757019</v>
+        <v>0.29090908169746399</v>
       </c>
       <c r="D31"/>
     </row>
@@ -796,10 +790,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>985</v>
+        <v>884</v>
       </c>
       <c r="C32">
-        <v>0.32659152150154114</v>
+        <v>0.29223141074180603</v>
       </c>
       <c r="D32"/>
     </row>
@@ -808,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1030</v>
+        <v>885</v>
       </c>
       <c r="C33">
-        <v>0.34151193499565125</v>
+        <v>0.29256197810173035</v>
       </c>
       <c r="D33"/>
     </row>
@@ -820,10 +814,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1077</v>
+        <v>955</v>
       </c>
       <c r="C34">
-        <v>0.35709547996520996</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D34"/>
     </row>
@@ -832,10 +826,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1122</v>
+        <v>998</v>
       </c>
       <c r="C35">
-        <v>0.37201592326164246</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D35"/>
     </row>
@@ -844,10 +838,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1123</v>
+        <v>1068</v>
       </c>
       <c r="C36">
-        <v>0.37234747409820557</v>
+        <v>0.353057861328125</v>
       </c>
       <c r="D36"/>
     </row>
@@ -856,10 +850,10 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="C37">
-        <v>0.37566313147544861</v>
+        <v>0.37190082669258118</v>
       </c>
       <c r="D37"/>
     </row>
@@ -868,10 +862,10 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1194</v>
+        <v>1163</v>
       </c>
       <c r="C38">
-        <v>0.39588859677314758</v>
+        <v>0.38446280360221863</v>
       </c>
       <c r="D38"/>
     </row>
@@ -880,10 +874,10 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1288</v>
+        <v>1263</v>
       </c>
       <c r="C39">
-        <v>0.4270557165145874</v>
+        <v>0.417520672082901</v>
       </c>
       <c r="D39"/>
     </row>
@@ -892,10 +886,10 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1423</v>
+        <v>1306</v>
       </c>
       <c r="C40">
-        <v>0.47181698679924011</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D40"/>
     </row>
@@ -904,10 +898,10 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1444</v>
+        <v>1368</v>
       </c>
       <c r="C41">
-        <v>0.47877985239028931</v>
+        <v>0.45223140716552734</v>
       </c>
       <c r="D41"/>
     </row>
@@ -916,10 +910,10 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1472</v>
+        <v>1390</v>
       </c>
       <c r="C42">
-        <v>0.48806366324424744</v>
+        <v>0.45950412750244141</v>
       </c>
       <c r="D42"/>
     </row>
@@ -928,10 +922,10 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1476</v>
+        <v>1414</v>
       </c>
       <c r="C43">
-        <v>0.48938992619514465</v>
+        <v>0.46743801236152649</v>
       </c>
       <c r="D43"/>
     </row>
@@ -940,10 +934,10 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1505</v>
+        <v>1428</v>
       </c>
       <c r="C44">
-        <v>0.49900531768798828</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D44"/>
     </row>
@@ -952,10 +946,10 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1553</v>
+        <v>1469</v>
       </c>
       <c r="C45">
-        <v>0.51492041349411011</v>
+        <v>0.48561984300613403</v>
       </c>
       <c r="D45"/>
     </row>
@@ -964,10 +958,10 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1660</v>
+        <v>1497</v>
       </c>
       <c r="C46">
-        <v>0.55039787292480469</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D46"/>
     </row>
@@ -976,10 +970,10 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1842</v>
+        <v>1658</v>
       </c>
       <c r="C47">
-        <v>0.61074268817901611</v>
+        <v>0.54809916019439697</v>
       </c>
       <c r="D47"/>
     </row>
@@ -988,10 +982,10 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1859</v>
+        <v>1746</v>
       </c>
       <c r="C48">
-        <v>0.61637932062149048</v>
+        <v>0.577190101146698</v>
       </c>
       <c r="D48"/>
     </row>
@@ -1000,10 +994,10 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1951</v>
+        <v>1838</v>
       </c>
       <c r="C49">
-        <v>0.64688330888748169</v>
+        <v>0.60760331153869629</v>
       </c>
       <c r="D49"/>
     </row>
@@ -1012,10 +1006,10 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1965</v>
+        <v>1865</v>
       </c>
       <c r="C50">
-        <v>0.65152519941329956</v>
+        <v>0.61652892827987671</v>
       </c>
       <c r="D50"/>
     </row>
@@ -1024,10 +1018,10 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>2000</v>
+        <v>1975</v>
       </c>
       <c r="C51">
-        <v>0.66312998533248901</v>
+        <v>0.6528925895690918</v>
       </c>
       <c r="D51"/>
     </row>
@@ -1036,10 +1030,10 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>2208</v>
+        <v>2008</v>
       </c>
       <c r="C52">
-        <v>0.73209547996520996</v>
+        <v>0.66380167007446289</v>
       </c>
       <c r="D52"/>
     </row>
@@ -1048,10 +1042,10 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>2217</v>
+        <v>2485</v>
       </c>
       <c r="C53">
-        <v>0.73507958650588989</v>
+        <v>0.82148760557174683</v>
       </c>
       <c r="D53"/>
     </row>
@@ -1060,10 +1054,10 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>2367</v>
+        <v>2540</v>
       </c>
       <c r="C54">
-        <v>0.78481429815292358</v>
+        <v>0.83966940641403198</v>
       </c>
       <c r="D54"/>
     </row>
@@ -1072,10 +1066,10 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>2375</v>
+        <v>2806</v>
       </c>
       <c r="C55">
-        <v>0.78746682405471802</v>
+        <v>0.92760330438613892</v>
       </c>
       <c r="D55"/>
     </row>
@@ -1085,7 +1079,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B54"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -1114,7 +1108,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
@@ -1482,7 +1476,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B50" t="s">
         <v>112</v>
@@ -1490,7 +1484,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B51" t="s">
         <v>113</v>
@@ -1506,7 +1500,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B53" t="s">
         <v>115</v>
@@ -1514,26 +1508,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>62</v>
-      </c>
-      <c r="B55" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>62</v>
-      </c>
-      <c r="B56" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/Data/aearep-2/candidatepackages.xlsx
+++ b/Data/aearep-2/candidatepackages.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rschfs1x\userRS\K-Q\lr397_RS\Documents\AEA_workspace\FunPackageSearch\Statapackagesearch-scan_aearep\Data\aearep-2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0563C7-4D71-4689-A796-E8361CE9B32D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Missing packages" sheetId="1" r:id="rId2"/>
-    <sheet name="Programs parsed" sheetId="2" r:id="rId4"/>
+    <sheet name="Missing packages" sheetId="1" r:id="rId1"/>
+    <sheet name="Programs parsed" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="117">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -25,21 +32,21 @@
     <t>reghdfe</t>
   </si>
   <si>
+    <t>coefplot</t>
+  </si>
+  <si>
     <t>unique</t>
   </si>
   <si>
-    <t>coefplot</t>
-  </si>
-  <si>
     <t>diff</t>
   </si>
   <si>
+    <t>binscatter</t>
+  </si>
+  <si>
     <t>center</t>
   </si>
   <si>
-    <t>binscatter</t>
-  </si>
-  <si>
     <t>fs</t>
   </si>
   <si>
@@ -64,27 +71,30 @@
     <t>missing</t>
   </si>
   <si>
+    <t>surface</t>
+  </si>
+  <si>
     <t>seq</t>
   </si>
   <si>
-    <t>surface</t>
-  </si>
-  <si>
     <t>dups</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>poverty</t>
+  </si>
+  <si>
+    <t>norm</t>
+  </si>
+  <si>
+    <t>cluster</t>
+  </si>
+  <si>
     <t>pv</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>cluster</t>
-  </si>
-  <si>
-    <t>norm</t>
-  </si>
-  <si>
     <t>split</t>
   </si>
   <si>
@@ -97,90 +107,87 @@
     <t>white</t>
   </si>
   <si>
+    <t>sumstats</t>
+  </si>
+  <si>
+    <t>dummies</t>
+  </si>
+  <si>
+    <t>grep</t>
+  </si>
+  <si>
     <t>running</t>
   </si>
   <si>
-    <t>poverty</t>
-  </si>
-  <si>
-    <t>sumstats</t>
-  </si>
-  <si>
     <t>python</t>
   </si>
   <si>
+    <t>median</t>
+  </si>
+  <si>
     <t>index</t>
   </si>
   <si>
     <t>dag</t>
   </si>
   <si>
-    <t>dummies</t>
-  </si>
-  <si>
-    <t>grep</t>
+    <t>delta</t>
   </si>
   <si>
     <t>irr</t>
   </si>
   <si>
-    <t>median</t>
-  </si>
-  <si>
-    <t>delta</t>
-  </si>
-  <si>
     <t>integrate</t>
   </si>
   <si>
+    <t>bys</t>
+  </si>
+  <si>
+    <t>kernel</t>
+  </si>
+  <si>
+    <t>git</t>
+  </si>
+  <si>
     <t>combine</t>
   </si>
   <si>
+    <t>pre</t>
+  </si>
+  <si>
     <t>nearest</t>
   </si>
   <si>
-    <t>bys</t>
-  </si>
-  <si>
-    <t>kernel</t>
-  </si>
-  <si>
-    <t>git</t>
-  </si>
-  <si>
-    <t>pre</t>
-  </si>
-  <si>
     <t>effects</t>
   </si>
   <si>
+    <t>zip</t>
+  </si>
+  <si>
     <t>hbox</t>
   </si>
   <si>
-    <t>zip</t>
+    <t>unemp</t>
+  </si>
+  <si>
+    <t>gets</t>
   </si>
   <si>
     <t>tr</t>
   </si>
   <si>
-    <t>gets</t>
-  </si>
-  <si>
-    <t>unemp</t>
+    <t>usd</t>
   </si>
   <si>
     <t>sequence</t>
   </si>
   <si>
-    <t>usd</t>
+    <t>digits</t>
   </si>
   <si>
     <t>switch</t>
   </si>
   <si>
-    <t>digits</t>
-  </si>
-  <si>
     <t>Package popularity (rank out of total # of packages)</t>
   </si>
   <si>
@@ -211,9 +218,6 @@
     <t>00_install.do</t>
   </si>
   <si>
-    <t>config.do</t>
-  </si>
-  <si>
     <t>main.do</t>
   </si>
   <si>
@@ -233,9 +237,6 @@
   </si>
   <si>
     <t>bootstrap_table_data_prep.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
   </si>
   <si>
     <t>cons_disaggregated.do</t>
@@ -376,7 +377,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -409,15 +410,325 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,7 +742,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -441,9 +752,11 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2"/>
-    </row>
-    <row r="3">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -453,9 +766,8 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3"/>
-    </row>
-    <row r="4">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -465,630 +777,582 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4"/>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5"/>
-    </row>
-    <row r="6">
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6"/>
-    </row>
-    <row r="7">
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7"/>
-    </row>
-    <row r="8">
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8"/>
-    </row>
-    <row r="9">
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9"/>
-    </row>
-    <row r="10">
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10"/>
-    </row>
-    <row r="11">
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11"/>
-    </row>
-    <row r="12">
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12"/>
-    </row>
-    <row r="13">
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13"/>
-    </row>
-    <row r="14">
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14"/>
-    </row>
-    <row r="15">
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15"/>
-    </row>
-    <row r="16">
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16"/>
-    </row>
-    <row r="17">
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>385</v>
+        <v>347</v>
       </c>
       <c r="C17">
-        <v>0.12765252590179443</v>
-      </c>
-      <c r="D17"/>
-    </row>
-    <row r="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C18">
-        <v>0.13925729691982269</v>
-      </c>
-      <c r="D18"/>
-    </row>
-    <row r="19">
+        <v>0.13586777448654175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>537</v>
+        <v>493</v>
       </c>
       <c r="C19">
-        <v>0.17805039882659912</v>
-      </c>
-      <c r="D19"/>
-    </row>
-    <row r="20">
+        <v>0.16297520697116852</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>555</v>
+        <v>499</v>
       </c>
       <c r="C20">
-        <v>0.1840185672044754</v>
-      </c>
-      <c r="D20"/>
-    </row>
-    <row r="21">
+        <v>0.16495867073535919</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>565</v>
+        <v>529</v>
       </c>
       <c r="C21">
-        <v>0.18733422458171844</v>
-      </c>
-      <c r="D21"/>
-    </row>
-    <row r="22">
+        <v>0.17487603425979614</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>566</v>
+        <v>539</v>
       </c>
       <c r="C22">
-        <v>0.18766577541828156</v>
-      </c>
-      <c r="D22"/>
-    </row>
-    <row r="23">
+        <v>0.17818181216716766</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>594</v>
+        <v>563</v>
       </c>
       <c r="C23">
-        <v>0.19694960117340088</v>
-      </c>
-      <c r="D23"/>
-    </row>
-    <row r="24">
+        <v>0.18611569702625275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="C24">
-        <v>0.20092837512493134</v>
-      </c>
-      <c r="D24"/>
-    </row>
-    <row r="25">
+        <v>0.20297521352767944</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>613</v>
+        <v>632</v>
       </c>
       <c r="C25">
-        <v>0.20324933528900146</v>
-      </c>
-      <c r="D25"/>
-    </row>
-    <row r="26">
+        <v>0.20892561972141266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>694</v>
+        <v>647</v>
       </c>
       <c r="C26">
-        <v>0.23010610044002533</v>
-      </c>
-      <c r="D26"/>
-    </row>
-    <row r="27">
+        <v>0.21388429403305054</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>745</v>
+        <v>706</v>
       </c>
       <c r="C27">
-        <v>0.24701590836048126</v>
-      </c>
-      <c r="D27"/>
-    </row>
-    <row r="28">
+        <v>0.23338842391967773</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>797</v>
+        <v>712</v>
       </c>
       <c r="C28">
-        <v>0.2642572820186615</v>
-      </c>
-      <c r="D28"/>
-    </row>
-    <row r="29">
+        <v>0.2353719025850296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C29">
-        <v>0.26889920234680176</v>
-      </c>
-      <c r="D29"/>
-    </row>
-    <row r="30">
+        <v>0.26842975616455078</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>827</v>
+        <v>875</v>
       </c>
       <c r="C30">
-        <v>0.27420425415039062</v>
-      </c>
-      <c r="D30"/>
-    </row>
-    <row r="31">
+        <v>0.28925618529319763</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>910</v>
+        <v>880</v>
       </c>
       <c r="C31">
-        <v>0.3017241358757019</v>
-      </c>
-      <c r="D31"/>
-    </row>
-    <row r="32">
+        <v>0.29090908169746399</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>985</v>
+        <v>884</v>
       </c>
       <c r="C32">
-        <v>0.32659152150154114</v>
-      </c>
-      <c r="D32"/>
-    </row>
-    <row r="33">
+        <v>0.29223141074180603</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1030</v>
+        <v>885</v>
       </c>
       <c r="C33">
-        <v>0.34151193499565125</v>
-      </c>
-      <c r="D33"/>
-    </row>
-    <row r="34">
+        <v>0.29256197810173035</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1077</v>
+        <v>955</v>
       </c>
       <c r="C34">
-        <v>0.35709547996520996</v>
-      </c>
-      <c r="D34"/>
-    </row>
-    <row r="35">
+        <v>0.31570246815681458</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1122</v>
+        <v>998</v>
       </c>
       <c r="C35">
-        <v>0.37201592326164246</v>
-      </c>
-      <c r="D35"/>
-    </row>
-    <row r="36">
+        <v>0.32991734147071838</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1123</v>
+        <v>1068</v>
       </c>
       <c r="C36">
-        <v>0.37234747409820557</v>
-      </c>
-      <c r="D36"/>
-    </row>
-    <row r="37">
+        <v>0.353057861328125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="C37">
-        <v>0.37566313147544861</v>
-      </c>
-      <c r="D37"/>
-    </row>
-    <row r="38">
+        <v>0.37190082669258118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1194</v>
+        <v>1163</v>
       </c>
       <c r="C38">
-        <v>0.39588859677314758</v>
-      </c>
-      <c r="D38"/>
-    </row>
-    <row r="39">
+        <v>0.38446280360221863</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1288</v>
+        <v>1263</v>
       </c>
       <c r="C39">
-        <v>0.4270557165145874</v>
-      </c>
-      <c r="D39"/>
-    </row>
-    <row r="40">
+        <v>0.417520672082901</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1423</v>
+        <v>1306</v>
       </c>
       <c r="C40">
-        <v>0.47181698679924011</v>
-      </c>
-      <c r="D40"/>
-    </row>
-    <row r="41">
+        <v>0.43173554539680481</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1444</v>
+        <v>1368</v>
       </c>
       <c r="C41">
-        <v>0.47877985239028931</v>
-      </c>
-      <c r="D41"/>
-    </row>
-    <row r="42">
+        <v>0.45223140716552734</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1472</v>
+        <v>1390</v>
       </c>
       <c r="C42">
-        <v>0.48806366324424744</v>
-      </c>
-      <c r="D42"/>
-    </row>
-    <row r="43">
+        <v>0.45950412750244141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1476</v>
+        <v>1414</v>
       </c>
       <c r="C43">
-        <v>0.48938992619514465</v>
-      </c>
-      <c r="D43"/>
-    </row>
-    <row r="44">
+        <v>0.46743801236152649</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1505</v>
+        <v>1428</v>
       </c>
       <c r="C44">
-        <v>0.49900531768798828</v>
-      </c>
-      <c r="D44"/>
-    </row>
-    <row r="45">
+        <v>0.47206610441207886</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1553</v>
+        <v>1469</v>
       </c>
       <c r="C45">
-        <v>0.51492041349411011</v>
-      </c>
-      <c r="D45"/>
-    </row>
-    <row r="46">
+        <v>0.48561984300613403</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1660</v>
+        <v>1497</v>
       </c>
       <c r="C46">
-        <v>0.55039787292480469</v>
-      </c>
-      <c r="D46"/>
-    </row>
-    <row r="47">
+        <v>0.49487602710723877</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1842</v>
+        <v>1658</v>
       </c>
       <c r="C47">
-        <v>0.61074268817901611</v>
-      </c>
-      <c r="D47"/>
-    </row>
-    <row r="48">
+        <v>0.54809916019439697</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1859</v>
+        <v>1746</v>
       </c>
       <c r="C48">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D48"/>
-    </row>
-    <row r="49">
+        <v>0.577190101146698</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1951</v>
+        <v>1838</v>
       </c>
       <c r="C49">
-        <v>0.64688330888748169</v>
-      </c>
-      <c r="D49"/>
-    </row>
-    <row r="50">
+        <v>0.60760331153869629</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1965</v>
+        <v>1865</v>
       </c>
       <c r="C50">
-        <v>0.65152519941329956</v>
-      </c>
-      <c r="D50"/>
-    </row>
-    <row r="51">
+        <v>0.61652892827987671</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>2000</v>
+        <v>1975</v>
       </c>
       <c r="C51">
-        <v>0.66312998533248901</v>
-      </c>
-      <c r="D51"/>
-    </row>
-    <row r="52">
+        <v>0.6528925895690918</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>2208</v>
+        <v>2008</v>
       </c>
       <c r="C52">
-        <v>0.73209547996520996</v>
-      </c>
-      <c r="D52"/>
-    </row>
-    <row r="53">
+        <v>0.66380167007446289</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>2217</v>
+        <v>2485</v>
       </c>
       <c r="C53">
-        <v>0.73507958650588989</v>
-      </c>
-      <c r="D53"/>
-    </row>
-    <row r="54">
+        <v>0.82148760557174683</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>2367</v>
+        <v>2540</v>
       </c>
       <c r="C54">
-        <v>0.78481429815292358</v>
-      </c>
-      <c r="D54"/>
-    </row>
-    <row r="55">
+        <v>0.83966940641403198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>2375</v>
+        <v>2806</v>
       </c>
       <c r="C55">
-        <v>0.78746682405471802</v>
-      </c>
-      <c r="D55"/>
+        <v>0.92760330438613892</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -1096,7 +1360,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -1104,7 +1368,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -1112,15 +1376,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -1128,7 +1392,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -1136,7 +1400,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -1144,7 +1408,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -1152,7 +1416,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -1160,7 +1424,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -1168,7 +1432,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -1176,7 +1440,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -1184,7 +1448,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -1192,7 +1456,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -1200,7 +1464,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -1208,7 +1472,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -1216,7 +1480,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -1224,7 +1488,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -1232,7 +1496,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -1240,7 +1504,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -1248,7 +1512,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -1256,7 +1520,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -1264,7 +1528,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -1272,7 +1536,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -1280,7 +1544,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -1288,7 +1552,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -1296,7 +1560,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -1304,7 +1568,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -1312,7 +1576,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -1320,7 +1584,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -1328,7 +1592,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -1336,7 +1600,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -1344,7 +1608,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -1352,7 +1616,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -1360,7 +1624,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -1368,7 +1632,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -1376,7 +1640,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -1384,7 +1648,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -1392,7 +1656,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -1400,7 +1664,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>60</v>
       </c>
@@ -1408,7 +1672,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -1416,7 +1680,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -1424,7 +1688,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -1432,7 +1696,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -1440,7 +1704,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -1448,7 +1712,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -1456,7 +1720,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -1464,7 +1728,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -1472,7 +1736,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -1480,23 +1744,23 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B50" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B51" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -1504,38 +1768,23 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B53" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>62</v>
-      </c>
-      <c r="B55" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>62</v>
-      </c>
-      <c r="B56" t="s">
-        <v>118</v>
-      </c>
-    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>